--- a/시장분석용_정보/시장분석용_4165036000.xlsx
+++ b/시장분석용_정보/시장분석용_4165036000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>9085</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -708,10 +612,10 @@
         <v>1279091525</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4165036000</v>
@@ -720,7 +624,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>23767993</v>
@@ -732,117 +636,69 @@
         <v>25701</v>
       </c>
       <c r="O2">
-        <v>91.34999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="P2">
-        <v>8.65</v>
+        <v>7.66</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>10.96</v>
       </c>
       <c r="R2">
-        <v>12.19</v>
+        <v>17.1</v>
       </c>
       <c r="S2">
-        <v>13.05</v>
+        <v>12.99</v>
       </c>
       <c r="T2">
-        <v>19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="U2">
-        <v>25.63</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="V2">
-        <v>21.47</v>
+        <v>11.09</v>
       </c>
       <c r="W2">
-        <v>8.65</v>
+        <v>8.52</v>
       </c>
       <c r="X2">
-        <v>18.56</v>
+        <v>12.43</v>
       </c>
       <c r="Y2">
-        <v>42.19</v>
+        <v>3.89</v>
       </c>
       <c r="Z2">
-        <v>34.81</v>
+        <v>5.19</v>
       </c>
       <c r="AA2">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>52.24</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>14.08</v>
       </c>
       <c r="AE2">
-        <v>9.07</v>
+        <v>2.82</v>
       </c>
       <c r="AF2">
-        <v>7.66</v>
-      </c>
-      <c r="AG2">
-        <v>10.96</v>
-      </c>
-      <c r="AH2">
-        <v>17.1</v>
-      </c>
-      <c r="AI2">
-        <v>12.99</v>
-      </c>
-      <c r="AJ2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AK2">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AL2">
-        <v>11.09</v>
-      </c>
-      <c r="AM2">
-        <v>8.52</v>
-      </c>
-      <c r="AN2">
-        <v>12.43</v>
-      </c>
-      <c r="AO2">
-        <v>3.89</v>
-      </c>
-      <c r="AP2">
-        <v>5.19</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>21.5</v>
-      </c>
-      <c r="AS2">
-        <v>52.24</v>
-      </c>
-      <c r="AT2">
-        <v>14.08</v>
-      </c>
-      <c r="AU2">
-        <v>2.82</v>
-      </c>
-      <c r="AV2">
         <v>0.28</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>9086</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -854,10 +710,10 @@
         <v>1279202458</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4165036000</v>
@@ -866,7 +722,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>4371785</v>
@@ -878,7 +734,7 @@
         <v>106163</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -887,43 +743,43 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>91.84</v>
+        <v>58.87</v>
       </c>
       <c r="U3">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.34</v>
+        <v>2.93</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>33.38</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="Y3">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>95.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>58.87</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>37.23</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -931,64 +787,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>2.94</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>58.87</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>2.93</v>
-      </c>
-      <c r="AM3">
-        <v>33.38</v>
-      </c>
-      <c r="AN3">
-        <v>1.87</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>58.87</v>
-      </c>
-      <c r="AS3">
-        <v>37.23</v>
-      </c>
-      <c r="AT3">
-        <v>3.9</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>20820</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -1000,10 +808,10 @@
         <v>1279091525</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4165036000</v>
@@ -1012,7 +820,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>17817490</v>
@@ -1024,117 +832,69 @@
         <v>23468</v>
       </c>
       <c r="O4">
-        <v>78.37</v>
+        <v>1.18</v>
       </c>
       <c r="P4">
-        <v>21.63</v>
+        <v>10.17</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>10.08</v>
       </c>
       <c r="R4">
-        <v>12.79</v>
+        <v>29.33</v>
       </c>
       <c r="S4">
-        <v>24.25</v>
+        <v>4.05</v>
       </c>
       <c r="T4">
-        <v>10.55</v>
+        <v>0.59</v>
       </c>
       <c r="U4">
-        <v>14.41</v>
+        <v>9.69</v>
       </c>
       <c r="V4">
-        <v>16.37</v>
+        <v>7.84</v>
       </c>
       <c r="W4">
-        <v>21.63</v>
+        <v>12.78</v>
       </c>
       <c r="X4">
-        <v>17.42</v>
+        <v>14.29</v>
       </c>
       <c r="Y4">
-        <v>41.01</v>
+        <v>0.92</v>
       </c>
       <c r="Z4">
-        <v>37.79</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>21.08</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>8.08</v>
       </c>
       <c r="AE4">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF4">
-        <v>10.17</v>
-      </c>
-      <c r="AG4">
-        <v>10.08</v>
-      </c>
-      <c r="AH4">
-        <v>29.33</v>
-      </c>
-      <c r="AI4">
-        <v>4.05</v>
-      </c>
-      <c r="AJ4">
-        <v>0.59</v>
-      </c>
-      <c r="AK4">
-        <v>9.69</v>
-      </c>
-      <c r="AL4">
-        <v>7.84</v>
-      </c>
-      <c r="AM4">
-        <v>12.78</v>
-      </c>
-      <c r="AN4">
-        <v>14.29</v>
-      </c>
-      <c r="AO4">
-        <v>0.92</v>
-      </c>
-      <c r="AP4">
-        <v>0.75</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>21.08</v>
-      </c>
-      <c r="AS4">
-        <v>68</v>
-      </c>
-      <c r="AT4">
-        <v>8.08</v>
-      </c>
-      <c r="AU4">
-        <v>1.17</v>
-      </c>
-      <c r="AV4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>20821</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202002</v>
@@ -1146,10 +906,10 @@
         <v>1279202458</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4165036000</v>
@@ -1158,7 +918,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>22312014</v>
@@ -1170,49 +930,49 @@
         <v>364708</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.32</v>
+        <v>59.6</v>
       </c>
       <c r="T5">
-        <v>71.72</v>
+        <v>11.42</v>
       </c>
       <c r="U5">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>21.71</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="Y5">
-        <v>15.99</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1221,66 +981,18 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>16.4</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>59.6</v>
-      </c>
-      <c r="AJ5">
-        <v>11.42</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>8</v>
-      </c>
-      <c r="AN5">
-        <v>4.58</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>15.2</v>
-      </c>
-      <c r="AS5">
-        <v>84.8</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>32552</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1292,10 +1004,10 @@
         <v>1279091525</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>4165036000</v>
@@ -1304,7 +1016,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>24849164</v>
@@ -1316,117 +1028,69 @@
         <v>26639</v>
       </c>
       <c r="O6">
-        <v>81.33</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>18.67</v>
+        <v>10.39</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="R6">
-        <v>13.33</v>
+        <v>23.6</v>
       </c>
       <c r="S6">
-        <v>25</v>
+        <v>14.27</v>
       </c>
       <c r="T6">
-        <v>19.18</v>
+        <v>3.38</v>
       </c>
       <c r="U6">
-        <v>11.98</v>
+        <v>10.7</v>
       </c>
       <c r="V6">
-        <v>11.84</v>
+        <v>12.27</v>
       </c>
       <c r="W6">
-        <v>18.67</v>
+        <v>7.89</v>
       </c>
       <c r="X6">
-        <v>15.07</v>
+        <v>3.93</v>
       </c>
       <c r="Y6">
-        <v>45.15</v>
+        <v>5.22</v>
       </c>
       <c r="Z6">
-        <v>33.3</v>
+        <v>0.1</v>
       </c>
       <c r="AA6">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>20.76</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>52.96</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>16.84</v>
       </c>
       <c r="AE6">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="AF6">
-        <v>10.39</v>
-      </c>
-      <c r="AG6">
-        <v>9.77</v>
-      </c>
-      <c r="AH6">
-        <v>23.6</v>
-      </c>
-      <c r="AI6">
-        <v>14.27</v>
-      </c>
-      <c r="AJ6">
-        <v>3.38</v>
-      </c>
-      <c r="AK6">
-        <v>10.7</v>
-      </c>
-      <c r="AL6">
-        <v>12.27</v>
-      </c>
-      <c r="AM6">
-        <v>7.89</v>
-      </c>
-      <c r="AN6">
-        <v>3.93</v>
-      </c>
-      <c r="AO6">
-        <v>5.22</v>
-      </c>
-      <c r="AP6">
-        <v>0.1</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>20.76</v>
-      </c>
-      <c r="AS6">
-        <v>52.96</v>
-      </c>
-      <c r="AT6">
-        <v>16.84</v>
-      </c>
-      <c r="AU6">
-        <v>2.36</v>
-      </c>
-      <c r="AV6">
         <v>1.76</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>32553</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202003</v>
@@ -1438,10 +1102,10 @@
         <v>1279202458</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4165036000</v>
@@ -1450,7 +1114,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>451519</v>
@@ -1462,7 +1126,7 @@
         <v>11275</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1471,40 +1135,40 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>13.86</v>
+        <v>40.35</v>
       </c>
       <c r="S7">
-        <v>24.39</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>35.25</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>4.77</v>
+        <v>59.65</v>
       </c>
       <c r="Y7">
-        <v>62.86</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>32.37</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>41.46</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>58.54</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1515,64 +1179,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>40.35</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>59.65</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>41.46</v>
-      </c>
-      <c r="AS7">
-        <v>58.54</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>44317</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202004</v>
@@ -1584,10 +1200,10 @@
         <v>1279091525</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>4165036000</v>
@@ -1596,7 +1212,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>18435024</v>
@@ -1608,117 +1224,69 @@
         <v>23839</v>
       </c>
       <c r="O8">
-        <v>76.05</v>
+        <v>4.39</v>
       </c>
       <c r="P8">
-        <v>23.95</v>
+        <v>11.33</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="R8">
-        <v>14.48</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="S8">
-        <v>5.21</v>
+        <v>21.21</v>
       </c>
       <c r="T8">
-        <v>14.79</v>
+        <v>3.88</v>
       </c>
       <c r="U8">
-        <v>27.32</v>
+        <v>13.48</v>
       </c>
       <c r="V8">
-        <v>18.25</v>
+        <v>9.49</v>
       </c>
       <c r="W8">
-        <v>19.94</v>
+        <v>4.57</v>
       </c>
       <c r="X8">
-        <v>18.44</v>
+        <v>16.61</v>
       </c>
       <c r="Y8">
-        <v>39.51</v>
+        <v>2.05</v>
       </c>
       <c r="Z8">
-        <v>37.88</v>
+        <v>1.47</v>
       </c>
       <c r="AA8">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>30.44</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>49.82</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="AE8">
-        <v>4.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AF8">
-        <v>11.33</v>
-      </c>
-      <c r="AG8">
-        <v>5.26</v>
-      </c>
-      <c r="AH8">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AI8">
-        <v>21.21</v>
-      </c>
-      <c r="AJ8">
-        <v>3.88</v>
-      </c>
-      <c r="AK8">
-        <v>13.48</v>
-      </c>
-      <c r="AL8">
-        <v>9.49</v>
-      </c>
-      <c r="AM8">
-        <v>4.57</v>
-      </c>
-      <c r="AN8">
-        <v>16.61</v>
-      </c>
-      <c r="AO8">
-        <v>2.05</v>
-      </c>
-      <c r="AP8">
-        <v>1.47</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>30.44</v>
-      </c>
-      <c r="AS8">
-        <v>49.82</v>
-      </c>
-      <c r="AT8">
-        <v>10.9</v>
-      </c>
-      <c r="AU8">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AV8">
         <v>4.64</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>44318</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202004</v>
@@ -1730,10 +1298,10 @@
         <v>1279202458</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4165036000</v>
@@ -1742,7 +1310,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>23018934</v>
@@ -1754,117 +1322,69 @@
         <v>243967</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>40.76</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>55.56</v>
+        <v>17.65</v>
       </c>
       <c r="S9">
-        <v>18.61</v>
+        <v>18.27</v>
       </c>
       <c r="T9">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="U9">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="X9">
-        <v>30.34</v>
+        <v>18.31</v>
       </c>
       <c r="Y9">
-        <v>20.56</v>
+        <v>40.76</v>
       </c>
       <c r="Z9">
-        <v>41.82</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>7.28</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>27.04</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>31.76</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>40.76</v>
+        <v>0.44</v>
       </c>
       <c r="AF9">
-        <v>0.21</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>17.65</v>
-      </c>
-      <c r="AI9">
-        <v>18.27</v>
-      </c>
-      <c r="AJ9">
-        <v>0.25</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0.52</v>
-      </c>
-      <c r="AM9">
-        <v>4.01</v>
-      </c>
-      <c r="AN9">
-        <v>18.31</v>
-      </c>
-      <c r="AO9">
-        <v>40.76</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>27.04</v>
-      </c>
-      <c r="AS9">
-        <v>31.76</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0.44</v>
-      </c>
-      <c r="AV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>56171</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202005</v>
@@ -1876,10 +1396,10 @@
         <v>1279091525</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>4165036000</v>
@@ -1888,7 +1408,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>19175317</v>
@@ -1900,117 +1420,69 @@
         <v>23141</v>
       </c>
       <c r="O10">
-        <v>74.01000000000001</v>
+        <v>3.92</v>
       </c>
       <c r="P10">
-        <v>25.99</v>
+        <v>11.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="R10">
-        <v>26.54</v>
+        <v>14.28</v>
       </c>
       <c r="S10">
-        <v>7.81</v>
+        <v>7.37</v>
       </c>
       <c r="T10">
-        <v>23.62</v>
+        <v>2.51</v>
       </c>
       <c r="U10">
-        <v>9.359999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="V10">
-        <v>15.28</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="W10">
-        <v>17.39</v>
+        <v>12.14</v>
       </c>
       <c r="X10">
-        <v>20.56</v>
+        <v>12.41</v>
       </c>
       <c r="Y10">
-        <v>38.22</v>
+        <v>1.63</v>
       </c>
       <c r="Z10">
-        <v>35.05</v>
+        <v>0.88</v>
       </c>
       <c r="AA10">
-        <v>6.16</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>55.73</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>16.63</v>
       </c>
       <c r="AE10">
-        <v>3.92</v>
+        <v>1.51</v>
       </c>
       <c r="AF10">
-        <v>11.55</v>
-      </c>
-      <c r="AG10">
-        <v>18.43</v>
-      </c>
-      <c r="AH10">
-        <v>14.28</v>
-      </c>
-      <c r="AI10">
-        <v>7.37</v>
-      </c>
-      <c r="AJ10">
-        <v>2.51</v>
-      </c>
-      <c r="AK10">
-        <v>7.62</v>
-      </c>
-      <c r="AL10">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AM10">
-        <v>12.14</v>
-      </c>
-      <c r="AN10">
-        <v>12.41</v>
-      </c>
-      <c r="AO10">
-        <v>1.63</v>
-      </c>
-      <c r="AP10">
-        <v>0.88</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>22.58</v>
-      </c>
-      <c r="AS10">
-        <v>55.73</v>
-      </c>
-      <c r="AT10">
-        <v>16.63</v>
-      </c>
-      <c r="AU10">
-        <v>1.51</v>
-      </c>
-      <c r="AV10">
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>56172</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202005</v>
@@ -2022,10 +1494,10 @@
         <v>1279202458</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>4165036000</v>
@@ -2034,7 +1506,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>575272</v>
@@ -2046,40 +1518,40 @@
         <v>18533</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>14.12</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>14.12</v>
       </c>
-      <c r="S11">
-        <v>33.36</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>52.52</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
-        <v>0</v>
+        <v>29.95</v>
       </c>
       <c r="X11">
-        <v>32.82</v>
+        <v>41.82</v>
       </c>
       <c r="Y11">
-        <v>22.57</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2088,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>27.16</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>58.72</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2099,64 +1571,16 @@
       <c r="AF11">
         <v>14.12</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>14.12</v>
-      </c>
-      <c r="AM11">
-        <v>29.95</v>
-      </c>
-      <c r="AN11">
-        <v>41.82</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>27.16</v>
-      </c>
-      <c r="AT11">
-        <v>58.72</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>14.12</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>68035</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202006</v>
@@ -2168,10 +1592,10 @@
         <v>1279091525</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>4165036000</v>
@@ -2180,7 +1604,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>26603543</v>
@@ -2192,117 +1616,69 @@
         <v>32362</v>
       </c>
       <c r="O12">
-        <v>91.16</v>
+        <v>2.91</v>
       </c>
       <c r="P12">
-        <v>8.84</v>
+        <v>7.59</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="R12">
-        <v>8.9</v>
+        <v>25.94</v>
       </c>
       <c r="S12">
-        <v>24.32</v>
+        <v>16.21</v>
       </c>
       <c r="T12">
-        <v>11.68</v>
+        <v>1.96</v>
       </c>
       <c r="U12">
-        <v>34.56</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="V12">
-        <v>11.71</v>
+        <v>7.53</v>
       </c>
       <c r="W12">
-        <v>8.84</v>
+        <v>13.62</v>
       </c>
       <c r="X12">
-        <v>13.54</v>
+        <v>7.08</v>
       </c>
       <c r="Y12">
-        <v>44.98</v>
+        <v>5.31</v>
       </c>
       <c r="Z12">
-        <v>38.3</v>
+        <v>1.66</v>
       </c>
       <c r="AA12">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>54.63</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="AE12">
-        <v>2.91</v>
+        <v>5.62</v>
       </c>
       <c r="AF12">
-        <v>7.59</v>
-      </c>
-      <c r="AG12">
-        <v>7.86</v>
-      </c>
-      <c r="AH12">
-        <v>25.94</v>
-      </c>
-      <c r="AI12">
-        <v>16.21</v>
-      </c>
-      <c r="AJ12">
-        <v>1.96</v>
-      </c>
-      <c r="AK12">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AL12">
-        <v>7.53</v>
-      </c>
-      <c r="AM12">
-        <v>13.62</v>
-      </c>
-      <c r="AN12">
-        <v>7.08</v>
-      </c>
-      <c r="AO12">
-        <v>5.31</v>
-      </c>
-      <c r="AP12">
-        <v>1.66</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>20.7</v>
-      </c>
-      <c r="AS12">
-        <v>54.63</v>
-      </c>
-      <c r="AT12">
-        <v>11.7</v>
-      </c>
-      <c r="AU12">
-        <v>5.62</v>
-      </c>
-      <c r="AV12">
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>68036</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202006</v>
@@ -2314,10 +1690,10 @@
         <v>1279202458</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>4165036000</v>
@@ -2326,7 +1702,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L13">
         <v>20655524</v>
@@ -2338,7 +1714,7 @@
         <v>576914</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2347,43 +1723,43 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>26.65</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>71.81</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>8.67</v>
+      </c>
+      <c r="V13">
+        <v>19.32</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>0.2</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>1.34</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
-        <v>56.67</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>43.33</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>34.67</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>17.58</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2391,64 +1767,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>71.81</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>8.67</v>
-      </c>
-      <c r="AL13">
-        <v>19.32</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0.2</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>34.67</v>
-      </c>
-      <c r="AS13">
-        <v>47.75</v>
-      </c>
-      <c r="AT13">
-        <v>17.58</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>79917</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202007</v>
@@ -2460,10 +1788,10 @@
         <v>1279091525</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>4165036000</v>
@@ -2472,7 +1800,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>22573741</v>
@@ -2484,117 +1812,69 @@
         <v>26677</v>
       </c>
       <c r="O14">
-        <v>83.02</v>
+        <v>3.53</v>
       </c>
       <c r="P14">
-        <v>16.98</v>
+        <v>10.49</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="R14">
-        <v>15.63</v>
+        <v>10.82</v>
       </c>
       <c r="S14">
-        <v>11.15</v>
+        <v>24.3</v>
       </c>
       <c r="T14">
-        <v>27.07</v>
+        <v>3.73</v>
       </c>
       <c r="U14">
-        <v>15.76</v>
+        <v>10.58</v>
       </c>
       <c r="V14">
-        <v>13.42</v>
+        <v>11.68</v>
       </c>
       <c r="W14">
-        <v>16.98</v>
+        <v>7.3</v>
       </c>
       <c r="X14">
-        <v>18.96</v>
+        <v>4.74</v>
       </c>
       <c r="Y14">
-        <v>47.56</v>
+        <v>1.03</v>
       </c>
       <c r="Z14">
-        <v>32</v>
+        <v>2.45</v>
       </c>
       <c r="AA14">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>57.12</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="AE14">
-        <v>3.53</v>
+        <v>5.46</v>
       </c>
       <c r="AF14">
-        <v>10.49</v>
-      </c>
-      <c r="AG14">
-        <v>12.82</v>
-      </c>
-      <c r="AH14">
-        <v>10.82</v>
-      </c>
-      <c r="AI14">
-        <v>24.3</v>
-      </c>
-      <c r="AJ14">
-        <v>3.73</v>
-      </c>
-      <c r="AK14">
-        <v>10.58</v>
-      </c>
-      <c r="AL14">
-        <v>11.68</v>
-      </c>
-      <c r="AM14">
-        <v>7.3</v>
-      </c>
-      <c r="AN14">
-        <v>4.74</v>
-      </c>
-      <c r="AO14">
-        <v>1.03</v>
-      </c>
-      <c r="AP14">
-        <v>2.45</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>16.02</v>
-      </c>
-      <c r="AS14">
-        <v>57.12</v>
-      </c>
-      <c r="AT14">
-        <v>13.09</v>
-      </c>
-      <c r="AU14">
-        <v>5.46</v>
-      </c>
-      <c r="AV14">
         <v>4.83</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>79918</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202007</v>
@@ -2606,10 +1886,10 @@
         <v>1279202458</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>4165036000</v>
@@ -2618,7 +1898,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>5313533</v>
@@ -2630,10 +1910,10 @@
         <v>128350</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2642,105 +1922,57 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>34.09</v>
+        <v>34.12</v>
       </c>
       <c r="T15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>45.08</v>
+        <v>25.63</v>
       </c>
       <c r="V15">
-        <v>9.84</v>
+        <v>29.25</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>43.83</v>
+        <v>1.26</v>
       </c>
       <c r="Y15">
-        <v>1.26</v>
+        <v>9.75</v>
       </c>
       <c r="Z15">
-        <v>45.18</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>9.74</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>61.01</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>9.75</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>34.12</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>25.63</v>
-      </c>
-      <c r="AL15">
-        <v>29.25</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>1.26</v>
-      </c>
-      <c r="AO15">
-        <v>9.75</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>61.01</v>
-      </c>
-      <c r="AT15">
-        <v>29.25</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>91793</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202008</v>
@@ -2752,10 +1984,10 @@
         <v>1279091525</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4165036000</v>
@@ -2764,7 +1996,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>21545742</v>
@@ -2776,117 +2008,69 @@
         <v>24113</v>
       </c>
       <c r="O16">
-        <v>75.03</v>
+        <v>5.74</v>
       </c>
       <c r="P16">
-        <v>24.97</v>
+        <v>14.09</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="R16">
-        <v>15.42</v>
+        <v>30</v>
       </c>
       <c r="S16">
-        <v>13.92</v>
+        <v>18.64</v>
       </c>
       <c r="T16">
-        <v>17.18</v>
+        <v>1.39</v>
       </c>
       <c r="U16">
-        <v>24.6</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="V16">
-        <v>11.9</v>
+        <v>4.27</v>
       </c>
       <c r="W16">
-        <v>16.98</v>
+        <v>3.12</v>
       </c>
       <c r="X16">
-        <v>25.29</v>
+        <v>7.43</v>
       </c>
       <c r="Y16">
-        <v>49.42</v>
+        <v>0.64</v>
       </c>
       <c r="Z16">
-        <v>23.65</v>
+        <v>2.02</v>
       </c>
       <c r="AA16">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>29.14</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>53.63</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="AE16">
-        <v>5.74</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>14.09</v>
-      </c>
-      <c r="AG16">
-        <v>6.1</v>
-      </c>
-      <c r="AH16">
-        <v>30</v>
-      </c>
-      <c r="AI16">
-        <v>18.64</v>
-      </c>
-      <c r="AJ16">
-        <v>1.39</v>
-      </c>
-      <c r="AK16">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AL16">
-        <v>4.27</v>
-      </c>
-      <c r="AM16">
-        <v>3.12</v>
-      </c>
-      <c r="AN16">
-        <v>7.43</v>
-      </c>
-      <c r="AO16">
-        <v>0.64</v>
-      </c>
-      <c r="AP16">
-        <v>2.02</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>29.14</v>
-      </c>
-      <c r="AS16">
-        <v>53.63</v>
-      </c>
-      <c r="AT16">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AU16">
-        <v>1.22</v>
-      </c>
-      <c r="AV16">
         <v>4.13</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>91794</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202008</v>
@@ -2898,10 +2082,10 @@
         <v>1279202458</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4165036000</v>
@@ -2910,7 +2094,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L17">
         <v>20795909</v>
@@ -2922,117 +2106,69 @@
         <v>271207</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="R17">
-        <v>34.15</v>
+        <v>49.64</v>
       </c>
       <c r="S17">
-        <v>50.55</v>
+        <v>0.8</v>
       </c>
       <c r="T17">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.8</v>
+        <v>6.06</v>
       </c>
       <c r="V17">
-        <v>9.58</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="X17">
-        <v>6.38</v>
+        <v>36.1</v>
       </c>
       <c r="Y17">
-        <v>70.75</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>22.87</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>6.88</v>
-      </c>
-      <c r="AH17">
-        <v>49.64</v>
-      </c>
-      <c r="AI17">
-        <v>0.8</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>6.06</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0.51</v>
-      </c>
-      <c r="AN17">
-        <v>36.1</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>68.8</v>
-      </c>
-      <c r="AS17">
-        <v>29.98</v>
-      </c>
-      <c r="AT17">
-        <v>0.71</v>
-      </c>
-      <c r="AU17">
-        <v>0.51</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>103712</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202009</v>
@@ -3044,10 +2180,10 @@
         <v>1279091525</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4165036000</v>
@@ -3056,7 +2192,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>31032189</v>
@@ -3068,117 +2204,69 @@
         <v>27712</v>
       </c>
       <c r="O18">
-        <v>89.13</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>10.87</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="R18">
-        <v>18.97</v>
+        <v>8.65</v>
       </c>
       <c r="S18">
-        <v>17.79</v>
+        <v>14.5</v>
       </c>
       <c r="T18">
-        <v>17.61</v>
+        <v>2.09</v>
       </c>
       <c r="U18">
-        <v>12.12</v>
+        <v>3.58</v>
       </c>
       <c r="V18">
-        <v>23.9</v>
+        <v>22.31</v>
       </c>
       <c r="W18">
-        <v>9.609999999999999</v>
+        <v>13.41</v>
       </c>
       <c r="X18">
-        <v>16.41</v>
+        <v>3.23</v>
       </c>
       <c r="Y18">
-        <v>50.12</v>
+        <v>1.22</v>
       </c>
       <c r="Z18">
-        <v>31.66</v>
+        <v>1.83</v>
       </c>
       <c r="AA18">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>43.21</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>27.13</v>
       </c>
       <c r="AE18">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="AF18">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AG18">
-        <v>18.62</v>
-      </c>
-      <c r="AH18">
-        <v>8.65</v>
-      </c>
-      <c r="AI18">
-        <v>14.5</v>
-      </c>
-      <c r="AJ18">
-        <v>2.09</v>
-      </c>
-      <c r="AK18">
-        <v>3.58</v>
-      </c>
-      <c r="AL18">
-        <v>22.31</v>
-      </c>
-      <c r="AM18">
-        <v>13.41</v>
-      </c>
-      <c r="AN18">
-        <v>3.23</v>
-      </c>
-      <c r="AO18">
-        <v>1.22</v>
-      </c>
-      <c r="AP18">
-        <v>1.83</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>18.62</v>
-      </c>
-      <c r="AS18">
-        <v>43.21</v>
-      </c>
-      <c r="AT18">
-        <v>27.13</v>
-      </c>
-      <c r="AU18">
-        <v>6.2</v>
-      </c>
-      <c r="AV18">
         <v>1.79</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>103713</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202009</v>
@@ -3190,10 +2278,10 @@
         <v>1279202458</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4165036000</v>
@@ -3202,7 +2290,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <v>27126147</v>
@@ -3214,117 +2302,69 @@
         <v>482409</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>42.79</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.15</v>
+        <v>2.04</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>18.84</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
-        <v>38.21</v>
+        <v>63.42</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>33.92</v>
+        <v>15.47</v>
       </c>
       <c r="Y19">
-        <v>29.33</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>36.75</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>17.11</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>51.11</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>31.78</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.22</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>2.04</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>18.84</v>
-      </c>
-      <c r="AL19">
-        <v>63.42</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>15.47</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>17.11</v>
-      </c>
-      <c r="AS19">
-        <v>51.11</v>
-      </c>
-      <c r="AT19">
-        <v>31.78</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>115672</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202010</v>
@@ -3336,10 +2376,10 @@
         <v>1279091525</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>4165036000</v>
@@ -3348,7 +2388,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>21158142</v>
@@ -3360,117 +2400,69 @@
         <v>27249</v>
       </c>
       <c r="O20">
-        <v>89.66</v>
+        <v>3.17</v>
       </c>
       <c r="P20">
-        <v>10.34</v>
+        <v>8.67</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="R20">
-        <v>27.36</v>
+        <v>23.85</v>
       </c>
       <c r="S20">
-        <v>22.76</v>
+        <v>11.06</v>
       </c>
       <c r="T20">
-        <v>20.77</v>
+        <v>1.93</v>
       </c>
       <c r="U20">
-        <v>8.57</v>
+        <v>7.57</v>
       </c>
       <c r="V20">
-        <v>13.01</v>
+        <v>13.22</v>
       </c>
       <c r="W20">
-        <v>7.52</v>
+        <v>5.52</v>
       </c>
       <c r="X20">
-        <v>19.71</v>
+        <v>10.03</v>
       </c>
       <c r="Y20">
-        <v>44.29</v>
+        <v>0.66</v>
       </c>
       <c r="Z20">
-        <v>35.96</v>
+        <v>0.62</v>
       </c>
       <c r="AA20">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>17.03</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>64.69</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="AE20">
-        <v>3.17</v>
+        <v>3.78</v>
       </c>
       <c r="AF20">
-        <v>8.67</v>
-      </c>
-      <c r="AG20">
-        <v>14.98</v>
-      </c>
-      <c r="AH20">
-        <v>23.85</v>
-      </c>
-      <c r="AI20">
-        <v>11.06</v>
-      </c>
-      <c r="AJ20">
-        <v>1.93</v>
-      </c>
-      <c r="AK20">
-        <v>7.57</v>
-      </c>
-      <c r="AL20">
-        <v>13.22</v>
-      </c>
-      <c r="AM20">
-        <v>5.52</v>
-      </c>
-      <c r="AN20">
-        <v>10.03</v>
-      </c>
-      <c r="AO20">
-        <v>0.66</v>
-      </c>
-      <c r="AP20">
-        <v>0.62</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>17.03</v>
-      </c>
-      <c r="AS20">
-        <v>64.69</v>
-      </c>
-      <c r="AT20">
-        <v>12.24</v>
-      </c>
-      <c r="AU20">
-        <v>3.78</v>
-      </c>
-      <c r="AV20">
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>115673</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202010</v>
@@ -3482,10 +2474,10 @@
         <v>1279202458</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4165036000</v>
@@ -3494,7 +2486,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>11355590</v>
@@ -3506,7 +2498,7 @@
         <v>245978</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0.48</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3515,108 +2507,60 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>18.88</v>
+        <v>10.39</v>
       </c>
       <c r="S21">
-        <v>68.61</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>11.92</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.6</v>
+        <v>69.22</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>10.39</v>
+        <v>19.91</v>
       </c>
       <c r="Y21">
-        <v>18.44</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>70.36</v>
+        <v>1.46</v>
       </c>
       <c r="AA21">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>86.2</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>10.39</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>69.22</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>19.91</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1.46</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>12.34</v>
-      </c>
-      <c r="AS21">
-        <v>86.2</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>127667</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202011</v>
@@ -3628,10 +2572,10 @@
         <v>1279091525</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>4165036000</v>
@@ -3640,7 +2584,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>19054393</v>
@@ -3652,117 +2596,69 @@
         <v>23582</v>
       </c>
       <c r="O22">
-        <v>80.13</v>
+        <v>6.4</v>
       </c>
       <c r="P22">
-        <v>19.87</v>
+        <v>11.41</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="R22">
-        <v>26.63</v>
+        <v>18.87</v>
       </c>
       <c r="S22">
-        <v>12.92</v>
+        <v>15.51</v>
       </c>
       <c r="T22">
-        <v>16.63</v>
+        <v>2.41</v>
       </c>
       <c r="U22">
-        <v>11.42</v>
+        <v>7.11</v>
       </c>
       <c r="V22">
-        <v>12.54</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="W22">
-        <v>19.87</v>
+        <v>5.71</v>
       </c>
       <c r="X22">
-        <v>33.45</v>
+        <v>6.92</v>
       </c>
       <c r="Y22">
-        <v>39.12</v>
+        <v>1.39</v>
       </c>
       <c r="Z22">
-        <v>24.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA22">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>19.53</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>56.52</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>14.69</v>
       </c>
       <c r="AE22">
-        <v>6.4</v>
+        <v>6.62</v>
       </c>
       <c r="AF22">
-        <v>11.41</v>
-      </c>
-      <c r="AG22">
-        <v>16.04</v>
-      </c>
-      <c r="AH22">
-        <v>18.87</v>
-      </c>
-      <c r="AI22">
-        <v>15.51</v>
-      </c>
-      <c r="AJ22">
-        <v>2.41</v>
-      </c>
-      <c r="AK22">
-        <v>7.11</v>
-      </c>
-      <c r="AL22">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AM22">
-        <v>5.71</v>
-      </c>
-      <c r="AN22">
-        <v>6.92</v>
-      </c>
-      <c r="AO22">
-        <v>1.39</v>
-      </c>
-      <c r="AP22">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>19.53</v>
-      </c>
-      <c r="AS22">
-        <v>56.52</v>
-      </c>
-      <c r="AT22">
-        <v>14.69</v>
-      </c>
-      <c r="AU22">
-        <v>6.62</v>
-      </c>
-      <c r="AV22">
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>127668</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202011</v>
@@ -3774,10 +2670,10 @@
         <v>1279202458</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>4165036000</v>
@@ -3786,7 +2682,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>5478872</v>
@@ -3798,117 +2694,69 @@
         <v>74008</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>52.16</v>
+        <v>37.23</v>
       </c>
       <c r="T23">
-        <v>4.34</v>
+        <v>51.97</v>
       </c>
       <c r="U23">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>5.82</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0.44</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>62.04</v>
+      </c>
+      <c r="AC23">
         <v>37.23</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>2.48</v>
-      </c>
-      <c r="Y23">
-        <v>96.41</v>
-      </c>
-      <c r="Z23">
-        <v>1.1</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>3.06</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>37.23</v>
-      </c>
-      <c r="AJ23">
-        <v>51.97</v>
-      </c>
-      <c r="AK23">
-        <v>1.92</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>5.82</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0.44</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>62.04</v>
-      </c>
-      <c r="AS23">
-        <v>37.23</v>
-      </c>
-      <c r="AT23">
-        <v>0.29</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>139672</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202012</v>
@@ -3920,10 +2768,10 @@
         <v>1279091525</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>4165036000</v>
@@ -3932,7 +2780,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>15538850</v>
@@ -3944,117 +2792,69 @@
         <v>21476</v>
       </c>
       <c r="O24">
-        <v>77.23999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="P24">
-        <v>22.76</v>
+        <v>12.17</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>10.76</v>
       </c>
       <c r="R24">
-        <v>19.48</v>
+        <v>4.13</v>
       </c>
       <c r="S24">
-        <v>13.14</v>
+        <v>13.88</v>
       </c>
       <c r="T24">
-        <v>8.380000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="U24">
-        <v>24.17</v>
+        <v>8.67</v>
       </c>
       <c r="V24">
-        <v>12.55</v>
+        <v>10.28</v>
       </c>
       <c r="W24">
-        <v>22.28</v>
+        <v>14.06</v>
       </c>
       <c r="X24">
-        <v>27.05</v>
+        <v>16.25</v>
       </c>
       <c r="Y24">
-        <v>45.3</v>
+        <v>1.39</v>
       </c>
       <c r="Z24">
-        <v>25.02</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>19.57</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>66.45</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="AE24">
-        <v>8.66</v>
+        <v>2.7</v>
       </c>
       <c r="AF24">
-        <v>12.17</v>
-      </c>
-      <c r="AG24">
-        <v>10.76</v>
-      </c>
-      <c r="AH24">
-        <v>4.13</v>
-      </c>
-      <c r="AI24">
-        <v>13.88</v>
-      </c>
-      <c r="AJ24">
-        <v>1.14</v>
-      </c>
-      <c r="AK24">
-        <v>8.67</v>
-      </c>
-      <c r="AL24">
-        <v>10.28</v>
-      </c>
-      <c r="AM24">
-        <v>14.06</v>
-      </c>
-      <c r="AN24">
-        <v>16.25</v>
-      </c>
-      <c r="AO24">
-        <v>1.39</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>19.57</v>
-      </c>
-      <c r="AS24">
-        <v>66.45</v>
-      </c>
-      <c r="AT24">
-        <v>7.91</v>
-      </c>
-      <c r="AU24">
-        <v>2.7</v>
-      </c>
-      <c r="AV24">
         <v>0.99</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>139673</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202012</v>
@@ -4066,10 +2866,10 @@
         <v>1279202458</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>4165036000</v>
@@ -4078,7 +2878,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>8577284</v>
@@ -4090,7 +2890,7 @@
         <v>120371</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4099,43 +2899,43 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>3.15</v>
+        <v>40.94</v>
       </c>
       <c r="S25">
+        <v>49.66</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>6.42</v>
       </c>
-      <c r="T25">
-        <v>37.02</v>
-      </c>
-      <c r="U25">
-        <v>52.65</v>
-      </c>
-      <c r="V25">
-        <v>0.76</v>
-      </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X25">
-        <v>2.56</v>
+        <v>1.14</v>
       </c>
       <c r="Y25">
-        <v>36.87</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>60.57</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>37.09</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>55.55</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4143,64 +2943,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>40.94</v>
-      </c>
-      <c r="AI25">
-        <v>49.66</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>6.42</v>
-      </c>
-      <c r="AM25">
-        <v>1.84</v>
-      </c>
-      <c r="AN25">
-        <v>1.14</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>37.09</v>
-      </c>
-      <c r="AS25">
-        <v>55.55</v>
-      </c>
-      <c r="AT25">
-        <v>7.35</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>151682</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202101</v>
@@ -4212,10 +2964,10 @@
         <v>1279091525</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>4165036000</v>
@@ -4224,7 +2976,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>16080130</v>
@@ -4236,117 +2988,69 @@
         <v>22024</v>
       </c>
       <c r="O26">
-        <v>79.34</v>
+        <v>2.68</v>
       </c>
       <c r="P26">
-        <v>20.66</v>
+        <v>17.82</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>24.06</v>
       </c>
       <c r="R26">
-        <v>19.35</v>
+        <v>9.01</v>
       </c>
       <c r="S26">
-        <v>13.35</v>
+        <v>9.93</v>
       </c>
       <c r="T26">
-        <v>11.76</v>
+        <v>2.84</v>
       </c>
       <c r="U26">
-        <v>24</v>
+        <v>1.48</v>
       </c>
       <c r="V26">
-        <v>10.87</v>
+        <v>6.97</v>
       </c>
       <c r="W26">
-        <v>20.66</v>
+        <v>14.59</v>
       </c>
       <c r="X26">
-        <v>19.74</v>
+        <v>10.62</v>
       </c>
       <c r="Y26">
-        <v>61.04</v>
+        <v>1.07</v>
       </c>
       <c r="Z26">
-        <v>17.97</v>
+        <v>0.71</v>
       </c>
       <c r="AA26">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>23.86</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>13.52</v>
       </c>
       <c r="AE26">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="AF26">
-        <v>17.82</v>
-      </c>
-      <c r="AG26">
-        <v>24.06</v>
-      </c>
-      <c r="AH26">
-        <v>9.01</v>
-      </c>
-      <c r="AI26">
-        <v>9.93</v>
-      </c>
-      <c r="AJ26">
-        <v>2.84</v>
-      </c>
-      <c r="AK26">
-        <v>1.48</v>
-      </c>
-      <c r="AL26">
-        <v>6.97</v>
-      </c>
-      <c r="AM26">
-        <v>14.59</v>
-      </c>
-      <c r="AN26">
-        <v>10.62</v>
-      </c>
-      <c r="AO26">
-        <v>1.07</v>
-      </c>
-      <c r="AP26">
-        <v>0.71</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>23.86</v>
-      </c>
-      <c r="AS26">
-        <v>57.14</v>
-      </c>
-      <c r="AT26">
-        <v>13.52</v>
-      </c>
-      <c r="AU26">
-        <v>2.28</v>
-      </c>
-      <c r="AV26">
         <v>1.42</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>151683</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202101</v>
@@ -4358,10 +3062,10 @@
         <v>1279202458</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>4165036000</v>
@@ -4370,7 +3074,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>20817527</v>
@@ -4382,117 +3086,69 @@
         <v>269053</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>11.4</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>13.31</v>
+        <v>25.02</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>36.05</v>
       </c>
       <c r="T27">
-        <v>34.71</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>51.98</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>10.12</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>17.39</v>
       </c>
       <c r="X27">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>60.86</v>
+        <v>11.4</v>
       </c>
       <c r="Z27">
-        <v>37.55</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>61.07</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>17.39</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>10.12</v>
       </c>
       <c r="AE27">
-        <v>11.4</v>
+        <v>0.02</v>
       </c>
       <c r="AF27">
-        <v>0.02</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>25.02</v>
-      </c>
-      <c r="AI27">
-        <v>36.05</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>10.12</v>
-      </c>
-      <c r="AM27">
-        <v>17.39</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>11.4</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>61.07</v>
-      </c>
-      <c r="AS27">
-        <v>17.39</v>
-      </c>
-      <c r="AT27">
-        <v>10.12</v>
-      </c>
-      <c r="AU27">
-        <v>0.02</v>
-      </c>
-      <c r="AV27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>163723</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202102</v>
@@ -4504,10 +3160,10 @@
         <v>1279091525</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>4165036000</v>
@@ -4516,7 +3172,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>13204474</v>
@@ -4528,117 +3184,69 @@
         <v>20402</v>
       </c>
       <c r="O28">
-        <v>97.18000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P28">
-        <v>2.82</v>
+        <v>11.59</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>22.17</v>
       </c>
       <c r="R28">
-        <v>23.86</v>
+        <v>15.64</v>
       </c>
       <c r="S28">
-        <v>26.32</v>
+        <v>7.45</v>
       </c>
       <c r="T28">
-        <v>19.98</v>
+        <v>3.96</v>
       </c>
       <c r="U28">
-        <v>15.77</v>
+        <v>3.71</v>
       </c>
       <c r="V28">
-        <v>11.25</v>
+        <v>10.53</v>
       </c>
       <c r="W28">
-        <v>2.82</v>
+        <v>8.93</v>
       </c>
       <c r="X28">
-        <v>18.63</v>
+        <v>14.82</v>
       </c>
       <c r="Y28">
-        <v>45.62</v>
+        <v>0.06</v>
       </c>
       <c r="Z28">
-        <v>35.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>16.74</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>56.77</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="AE28">
-        <v>1.2</v>
+        <v>4.81</v>
       </c>
       <c r="AF28">
-        <v>11.59</v>
-      </c>
-      <c r="AG28">
-        <v>22.17</v>
-      </c>
-      <c r="AH28">
-        <v>15.64</v>
-      </c>
-      <c r="AI28">
-        <v>7.45</v>
-      </c>
-      <c r="AJ28">
-        <v>3.96</v>
-      </c>
-      <c r="AK28">
-        <v>3.71</v>
-      </c>
-      <c r="AL28">
-        <v>10.53</v>
-      </c>
-      <c r="AM28">
-        <v>8.93</v>
-      </c>
-      <c r="AN28">
-        <v>14.82</v>
-      </c>
-      <c r="AO28">
-        <v>0.06</v>
-      </c>
-      <c r="AP28">
-        <v>0.8</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>16.74</v>
-      </c>
-      <c r="AS28">
-        <v>56.77</v>
-      </c>
-      <c r="AT28">
-        <v>19.18</v>
-      </c>
-      <c r="AU28">
-        <v>4.81</v>
-      </c>
-      <c r="AV28">
         <v>1.64</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>163724</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202102</v>
@@ -4650,10 +3258,10 @@
         <v>1279202458</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>4165036000</v>
@@ -4662,7 +3270,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>1655772</v>
@@ -4674,7 +3282,7 @@
         <v>65420</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -4683,28 +3291,28 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>94.65000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="S29">
-        <v>0.46</v>
+        <v>91.72</v>
       </c>
       <c r="T29">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>7.83</v>
+        <v>2.93</v>
       </c>
       <c r="Y29">
-        <v>92.17</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -4713,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>99.08</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4727,64 +3335,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>5.35</v>
-      </c>
-      <c r="AI29">
-        <v>91.72</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>2.93</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>99.08</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0.92</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>175789</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202103</v>
@@ -4796,10 +3356,10 @@
         <v>1279091525</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I30">
         <v>4165036000</v>
@@ -4808,7 +3368,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>27568404</v>
@@ -4820,117 +3380,69 @@
         <v>27138</v>
       </c>
       <c r="O30">
-        <v>87.02</v>
+        <v>4.06</v>
       </c>
       <c r="P30">
-        <v>12.98</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="R30">
-        <v>19.6</v>
+        <v>17.31</v>
       </c>
       <c r="S30">
-        <v>13.99</v>
+        <v>12.63</v>
       </c>
       <c r="T30">
-        <v>17.97</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>23.95</v>
+        <v>3.24</v>
       </c>
       <c r="V30">
-        <v>13.65</v>
+        <v>18.03</v>
       </c>
       <c r="W30">
-        <v>10.84</v>
+        <v>4.93</v>
       </c>
       <c r="X30">
-        <v>12.72</v>
+        <v>11.74</v>
       </c>
       <c r="Y30">
-        <v>47.39</v>
+        <v>0.55</v>
       </c>
       <c r="Z30">
-        <v>39.62</v>
+        <v>4.38</v>
       </c>
       <c r="AA30">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>17.17</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>52.3</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>23.48</v>
       </c>
       <c r="AE30">
-        <v>4.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF30">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="AG30">
-        <v>18.03</v>
-      </c>
-      <c r="AH30">
-        <v>17.31</v>
-      </c>
-      <c r="AI30">
-        <v>12.63</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AK30">
-        <v>3.24</v>
-      </c>
-      <c r="AL30">
-        <v>18.03</v>
-      </c>
-      <c r="AM30">
-        <v>4.93</v>
-      </c>
-      <c r="AN30">
-        <v>11.74</v>
-      </c>
-      <c r="AO30">
-        <v>0.55</v>
-      </c>
-      <c r="AP30">
-        <v>4.38</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>17.17</v>
-      </c>
-      <c r="AS30">
-        <v>52.3</v>
-      </c>
-      <c r="AT30">
-        <v>23.48</v>
-      </c>
-      <c r="AU30">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AV30">
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>175790</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202103</v>
@@ -4942,10 +3454,10 @@
         <v>1279202458</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>4165036000</v>
@@ -4954,7 +3466,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L31">
         <v>1052289</v>
@@ -4966,7 +3478,7 @@
         <v>20280</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4975,108 +3487,60 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>17.65</v>
+        <v>0</v>
       </c>
       <c r="S31">
+        <v>56.71</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>4.93</v>
+      </c>
+      <c r="V31">
+        <v>16.72</v>
+      </c>
+      <c r="W31">
+        <v>8.93</v>
+      </c>
+      <c r="X31">
+        <v>12.72</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>49.31</v>
+      </c>
+      <c r="AC31">
+        <v>16.03</v>
+      </c>
+      <c r="AD31">
+        <v>29.93</v>
+      </c>
+      <c r="AE31">
         <v>4.73</v>
       </c>
-      <c r="T31">
-        <v>6.46</v>
-      </c>
-      <c r="U31">
-        <v>21.84</v>
-      </c>
-      <c r="V31">
-        <v>49.31</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>24.41</v>
-      </c>
-      <c r="Y31">
-        <v>75.59</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>56.71</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>4.93</v>
-      </c>
-      <c r="AL31">
-        <v>16.72</v>
-      </c>
-      <c r="AM31">
-        <v>8.93</v>
-      </c>
-      <c r="AN31">
-        <v>12.72</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>49.31</v>
-      </c>
-      <c r="AS31">
-        <v>16.03</v>
-      </c>
-      <c r="AT31">
-        <v>29.93</v>
-      </c>
-      <c r="AU31">
-        <v>4.73</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>187904</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202104</v>
@@ -5088,10 +3552,10 @@
         <v>1279091525</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4165036000</v>
@@ -5100,7 +3564,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>21745460</v>
@@ -5112,117 +3576,69 @@
         <v>24815</v>
       </c>
       <c r="O32">
-        <v>88.95999999999999</v>
+        <v>6.13</v>
       </c>
       <c r="P32">
-        <v>11.04</v>
+        <v>14.12</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="R32">
-        <v>17.96</v>
+        <v>11.86</v>
       </c>
       <c r="S32">
-        <v>25.07</v>
+        <v>11.53</v>
       </c>
       <c r="T32">
-        <v>18.63</v>
+        <v>1.2</v>
       </c>
       <c r="U32">
-        <v>15.06</v>
+        <v>17.59</v>
       </c>
       <c r="V32">
-        <v>12.23</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="W32">
-        <v>11.04</v>
+        <v>7.52</v>
       </c>
       <c r="X32">
-        <v>25.79</v>
+        <v>7.14</v>
       </c>
       <c r="Y32">
-        <v>33.96</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>40.17</v>
+        <v>1.44</v>
       </c>
       <c r="AA32">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>23.88</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>53.73</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="AE32">
-        <v>6.13</v>
+        <v>3.69</v>
       </c>
       <c r="AF32">
-        <v>14.12</v>
-      </c>
-      <c r="AG32">
-        <v>13.63</v>
-      </c>
-      <c r="AH32">
-        <v>11.86</v>
-      </c>
-      <c r="AI32">
-        <v>11.53</v>
-      </c>
-      <c r="AJ32">
-        <v>1.2</v>
-      </c>
-      <c r="AK32">
-        <v>17.59</v>
-      </c>
-      <c r="AL32">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AM32">
-        <v>7.52</v>
-      </c>
-      <c r="AN32">
-        <v>7.14</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1.44</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>23.88</v>
-      </c>
-      <c r="AS32">
-        <v>53.73</v>
-      </c>
-      <c r="AT32">
-        <v>16.25</v>
-      </c>
-      <c r="AU32">
-        <v>3.69</v>
-      </c>
-      <c r="AV32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>187905</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202104</v>
@@ -5234,10 +3650,10 @@
         <v>1279202458</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4165036000</v>
@@ -5246,7 +3662,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L33">
         <v>13354400</v>
@@ -5258,7 +3674,7 @@
         <v>261320</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -5267,108 +3683,60 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="S33">
-        <v>76.69</v>
+        <v>19.13</v>
       </c>
       <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1.57</v>
+      </c>
+      <c r="W33">
+        <v>0.65</v>
+      </c>
+      <c r="X33">
+        <v>78.45</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>76.53</v>
+      </c>
+      <c r="AC33">
         <v>19.13</v>
       </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>0.2</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>20.45</v>
-      </c>
-      <c r="Y33">
-        <v>1.06</v>
-      </c>
-      <c r="Z33">
-        <v>78.48999999999999</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0.2</v>
-      </c>
-      <c r="AI33">
-        <v>19.13</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>1.57</v>
-      </c>
-      <c r="AM33">
-        <v>0.65</v>
-      </c>
-      <c r="AN33">
-        <v>78.45</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>76.53</v>
-      </c>
-      <c r="AS33">
-        <v>19.13</v>
-      </c>
-      <c r="AT33">
-        <v>2.18</v>
-      </c>
-      <c r="AU33">
-        <v>2.15</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>200053</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202105</v>
@@ -5380,10 +3748,10 @@
         <v>1279091525</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>4165036000</v>
@@ -5392,7 +3760,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>20827025</v>
@@ -5404,117 +3772,69 @@
         <v>25511</v>
       </c>
       <c r="O34">
-        <v>81.98</v>
+        <v>5.83</v>
       </c>
       <c r="P34">
-        <v>18.02</v>
+        <v>5.54</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>20.21</v>
       </c>
       <c r="R34">
-        <v>14.16</v>
+        <v>14.49</v>
       </c>
       <c r="S34">
-        <v>13.91</v>
+        <v>21.77</v>
       </c>
       <c r="T34">
-        <v>12.41</v>
+        <v>1.66</v>
       </c>
       <c r="U34">
-        <v>16.14</v>
+        <v>6.95</v>
       </c>
       <c r="V34">
-        <v>26.02</v>
+        <v>9.15</v>
       </c>
       <c r="W34">
-        <v>17.35</v>
+        <v>1.06</v>
       </c>
       <c r="X34">
-        <v>21.68</v>
+        <v>13.33</v>
       </c>
       <c r="Y34">
-        <v>51.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z34">
-        <v>26.72</v>
+        <v>0.5</v>
       </c>
       <c r="AA34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>53.17</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="AE34">
-        <v>5.83</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AF34">
-        <v>5.54</v>
-      </c>
-      <c r="AG34">
-        <v>20.21</v>
-      </c>
-      <c r="AH34">
-        <v>14.49</v>
-      </c>
-      <c r="AI34">
-        <v>21.77</v>
-      </c>
-      <c r="AJ34">
-        <v>1.66</v>
-      </c>
-      <c r="AK34">
-        <v>6.95</v>
-      </c>
-      <c r="AL34">
-        <v>9.15</v>
-      </c>
-      <c r="AM34">
-        <v>1.06</v>
-      </c>
-      <c r="AN34">
-        <v>13.33</v>
-      </c>
-      <c r="AO34">
-        <v>1.05</v>
-      </c>
-      <c r="AP34">
-        <v>0.5</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>23.11</v>
-      </c>
-      <c r="AS34">
-        <v>53.17</v>
-      </c>
-      <c r="AT34">
-        <v>13.22</v>
-      </c>
-      <c r="AU34">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AV34">
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>200054</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202105</v>
@@ -5526,10 +3846,10 @@
         <v>1279202458</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>4165036000</v>
@@ -5538,7 +3858,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <v>18331463</v>
@@ -5550,117 +3870,69 @@
         <v>301150</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>0.91</v>
+        <v>16.6</v>
       </c>
       <c r="T35">
-        <v>22.14</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>13.84</v>
+        <v>60.88</v>
       </c>
       <c r="V35">
-        <v>62.31</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X35">
-        <v>0.23</v>
+        <v>19.87</v>
       </c>
       <c r="Y35">
-        <v>18.95</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>80.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>30.44</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>62.26</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>1.23</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>16.6</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>60.88</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>1.42</v>
-      </c>
-      <c r="AN35">
-        <v>19.87</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>30.44</v>
-      </c>
-      <c r="AS35">
-        <v>7.3</v>
-      </c>
-      <c r="AT35">
-        <v>62.26</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>212242</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202106</v>
@@ -5672,10 +3944,10 @@
         <v>1279091525</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4165036000</v>
@@ -5684,7 +3956,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>16791381</v>
@@ -5696,117 +3968,69 @@
         <v>19055</v>
       </c>
       <c r="O36">
-        <v>85.38</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="P36">
-        <v>14.62</v>
+        <v>19.16</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="R36">
-        <v>16.37</v>
+        <v>11.16</v>
       </c>
       <c r="S36">
-        <v>17.14</v>
+        <v>10.65</v>
       </c>
       <c r="T36">
-        <v>21.99</v>
+        <v>1.48</v>
       </c>
       <c r="U36">
-        <v>13.52</v>
+        <v>3.33</v>
       </c>
       <c r="V36">
-        <v>16.37</v>
+        <v>15.42</v>
       </c>
       <c r="W36">
-        <v>14.62</v>
+        <v>4.87</v>
       </c>
       <c r="X36">
-        <v>28.42</v>
+        <v>18.27</v>
       </c>
       <c r="Y36">
-        <v>38.42</v>
+        <v>0.9</v>
       </c>
       <c r="Z36">
-        <v>29.01</v>
+        <v>3.76</v>
       </c>
       <c r="AA36">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>27.84</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>46.75</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="AE36">
-        <v>9.210000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AF36">
-        <v>19.16</v>
-      </c>
-      <c r="AG36">
-        <v>6.45</v>
-      </c>
-      <c r="AH36">
-        <v>11.16</v>
-      </c>
-      <c r="AI36">
-        <v>10.65</v>
-      </c>
-      <c r="AJ36">
-        <v>1.48</v>
-      </c>
-      <c r="AK36">
-        <v>3.33</v>
-      </c>
-      <c r="AL36">
-        <v>15.42</v>
-      </c>
-      <c r="AM36">
-        <v>4.87</v>
-      </c>
-      <c r="AN36">
-        <v>18.27</v>
-      </c>
-      <c r="AO36">
-        <v>0.9</v>
-      </c>
-      <c r="AP36">
-        <v>3.76</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>27.84</v>
-      </c>
-      <c r="AS36">
-        <v>46.75</v>
-      </c>
-      <c r="AT36">
-        <v>19.7</v>
-      </c>
-      <c r="AU36">
-        <v>0.86</v>
-      </c>
-      <c r="AV36">
         <v>0.19</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>212243</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202106</v>
@@ -5818,10 +4042,10 @@
         <v>1279202458</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>4165036000</v>
@@ -5830,7 +4054,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L37">
         <v>12040909</v>
@@ -5842,117 +4066,69 @@
         <v>237690</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
+        <v>13.22</v>
+      </c>
+      <c r="S37">
+        <v>13.27</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
         <v>0.55</v>
       </c>
-      <c r="S37">
-        <v>13.22</v>
-      </c>
-      <c r="T37">
-        <v>63.11</v>
-      </c>
-      <c r="U37">
-        <v>17.85</v>
-      </c>
-      <c r="V37">
-        <v>5.27</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>5.23</v>
-      </c>
       <c r="Y37">
-        <v>18.24</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>76.53</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>4.21</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>13.22</v>
-      </c>
-      <c r="AI37">
-        <v>13.27</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>68.76000000000001</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>0.55</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>4.56</v>
-      </c>
-      <c r="AS37">
-        <v>65.56999999999999</v>
-      </c>
-      <c r="AT37">
-        <v>17.25</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
         <v>12.62</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>224460</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202107</v>
@@ -5964,10 +4140,10 @@
         <v>1279091525</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>4165036000</v>
@@ -5976,7 +4152,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>26295796</v>
@@ -5988,117 +4164,69 @@
         <v>26117</v>
       </c>
       <c r="O38">
-        <v>78.62</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="P38">
-        <v>21.38</v>
+        <v>11.42</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>13.62</v>
       </c>
       <c r="R38">
-        <v>12.18</v>
+        <v>15.98</v>
       </c>
       <c r="S38">
-        <v>12.83</v>
+        <v>5.18</v>
       </c>
       <c r="T38">
-        <v>19.96</v>
+        <v>2.14</v>
       </c>
       <c r="U38">
-        <v>10.97</v>
+        <v>7.69</v>
       </c>
       <c r="V38">
-        <v>22.69</v>
+        <v>16.91</v>
       </c>
       <c r="W38">
-        <v>21.38</v>
+        <v>7.1</v>
       </c>
       <c r="X38">
-        <v>22.24</v>
+        <v>11</v>
       </c>
       <c r="Y38">
-        <v>53.89</v>
+        <v>1.36</v>
       </c>
       <c r="Z38">
-        <v>23.29</v>
+        <v>2.95</v>
       </c>
       <c r="AA38">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>24.36</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>49.35</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="AE38">
-        <v>8.960000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="AF38">
-        <v>11.42</v>
-      </c>
-      <c r="AG38">
-        <v>13.62</v>
-      </c>
-      <c r="AH38">
-        <v>15.98</v>
-      </c>
-      <c r="AI38">
-        <v>5.18</v>
-      </c>
-      <c r="AJ38">
-        <v>2.14</v>
-      </c>
-      <c r="AK38">
-        <v>7.69</v>
-      </c>
-      <c r="AL38">
-        <v>16.91</v>
-      </c>
-      <c r="AM38">
-        <v>7.1</v>
-      </c>
-      <c r="AN38">
-        <v>11</v>
-      </c>
-      <c r="AO38">
-        <v>1.36</v>
-      </c>
-      <c r="AP38">
-        <v>2.95</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>24.36</v>
-      </c>
-      <c r="AS38">
-        <v>49.35</v>
-      </c>
-      <c r="AT38">
-        <v>17.55</v>
-      </c>
-      <c r="AU38">
-        <v>1.84</v>
-      </c>
-      <c r="AV38">
         <v>2.59</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>224461</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202107</v>
@@ -6110,10 +4238,10 @@
         <v>1279202458</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>4165036000</v>
@@ -6122,7 +4250,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L39">
         <v>9329418</v>
@@ -6134,117 +4262,69 @@
         <v>154308</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="R39">
-        <v>11.01</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>28.94</v>
       </c>
       <c r="T39">
-        <v>70.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V39">
-        <v>16.48</v>
+        <v>1.54</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X39">
-        <v>61.81</v>
+        <v>64.81</v>
       </c>
       <c r="Y39">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>2.59</v>
+        <v>1.54</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>38.17</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>50.61</v>
       </c>
       <c r="AD39">
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF39">
-        <v>0.65</v>
-      </c>
-      <c r="AG39">
-        <v>0.86</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>28.94</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>2.12</v>
-      </c>
-      <c r="AL39">
-        <v>1.54</v>
-      </c>
-      <c r="AM39">
-        <v>1.07</v>
-      </c>
-      <c r="AN39">
-        <v>64.81</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1.54</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>38.17</v>
-      </c>
-      <c r="AS39">
-        <v>50.61</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>1.07</v>
-      </c>
-      <c r="AV39">
         <v>8.6</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>236703</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202108</v>
@@ -6256,10 +4336,10 @@
         <v>1279091525</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>4165036000</v>
@@ -6268,7 +4348,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>24115120</v>
@@ -6280,117 +4360,69 @@
         <v>27940</v>
       </c>
       <c r="O40">
-        <v>84.72</v>
+        <v>3.91</v>
       </c>
       <c r="P40">
-        <v>15.28</v>
+        <v>16.11</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>17.01</v>
       </c>
       <c r="R40">
-        <v>34.65</v>
+        <v>12.56</v>
       </c>
       <c r="S40">
-        <v>13.44</v>
+        <v>7.94</v>
       </c>
       <c r="T40">
-        <v>10.9</v>
+        <v>2.22</v>
       </c>
       <c r="U40">
-        <v>18.98</v>
+        <v>4.19</v>
       </c>
       <c r="V40">
-        <v>9.1</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="W40">
-        <v>12.93</v>
+        <v>13.4</v>
       </c>
       <c r="X40">
-        <v>23.75</v>
+        <v>13.94</v>
       </c>
       <c r="Y40">
-        <v>42.99</v>
+        <v>0.91</v>
       </c>
       <c r="Z40">
-        <v>28.75</v>
+        <v>4.15</v>
       </c>
       <c r="AA40">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>19.14</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>37.16</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>22.99</v>
       </c>
       <c r="AE40">
-        <v>3.91</v>
+        <v>13.02</v>
       </c>
       <c r="AF40">
-        <v>16.11</v>
-      </c>
-      <c r="AG40">
-        <v>17.01</v>
-      </c>
-      <c r="AH40">
-        <v>12.56</v>
-      </c>
-      <c r="AI40">
-        <v>7.94</v>
-      </c>
-      <c r="AJ40">
-        <v>2.22</v>
-      </c>
-      <c r="AK40">
-        <v>4.19</v>
-      </c>
-      <c r="AL40">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AM40">
-        <v>13.4</v>
-      </c>
-      <c r="AN40">
-        <v>13.94</v>
-      </c>
-      <c r="AO40">
-        <v>0.91</v>
-      </c>
-      <c r="AP40">
-        <v>4.15</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>19.14</v>
-      </c>
-      <c r="AS40">
-        <v>37.16</v>
-      </c>
-      <c r="AT40">
-        <v>22.99</v>
-      </c>
-      <c r="AU40">
-        <v>13.02</v>
-      </c>
-      <c r="AV40">
         <v>2.63</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>236704</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202108</v>
@@ -6402,10 +4434,10 @@
         <v>1279202458</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>4165036000</v>
@@ -6414,7 +4446,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L41">
         <v>3291401</v>
@@ -6426,117 +4458,69 @@
         <v>91643</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>13.25</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>2.49</v>
+        <v>1.5</v>
       </c>
       <c r="T41">
-        <v>81.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>13.25</v>
+        <v>1.71</v>
       </c>
       <c r="V41">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X41">
         <v>77.94</v>
       </c>
       <c r="Y41">
-        <v>8.81</v>
+        <v>0</v>
       </c>
       <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
         <v>13.25</v>
       </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
-        <v>0</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>13.25</v>
+        <v>3.1</v>
       </c>
       <c r="AF41">
         <v>0</v>
       </c>
-      <c r="AG41">
-        <v>2.49</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>1.5</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>1.71</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>3.1</v>
-      </c>
-      <c r="AN41">
-        <v>77.94</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>13.25</v>
-      </c>
-      <c r="AS41">
-        <v>83.65000000000001</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>3.1</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>248989</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>202109</v>
@@ -6548,10 +4532,10 @@
         <v>1279091525</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4165036000</v>
@@ -6560,7 +4544,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>22260934</v>
@@ -6572,117 +4556,69 @@
         <v>25952</v>
       </c>
       <c r="O42">
-        <v>85.59</v>
+        <v>4.81</v>
       </c>
       <c r="P42">
-        <v>14.41</v>
+        <v>19.03</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>8.68</v>
       </c>
       <c r="R42">
-        <v>13.98</v>
+        <v>24.39</v>
       </c>
       <c r="S42">
-        <v>22.44</v>
+        <v>16.79</v>
       </c>
       <c r="T42">
-        <v>18.03</v>
+        <v>1.29</v>
       </c>
       <c r="U42">
-        <v>21.04</v>
+        <v>5.12</v>
       </c>
       <c r="V42">
-        <v>10.11</v>
+        <v>3.93</v>
       </c>
       <c r="W42">
-        <v>14.41</v>
+        <v>6.89</v>
       </c>
       <c r="X42">
-        <v>18.11</v>
+        <v>9.08</v>
       </c>
       <c r="Y42">
-        <v>40.14</v>
+        <v>1.06</v>
       </c>
       <c r="Z42">
-        <v>41.75</v>
+        <v>0.7</v>
       </c>
       <c r="AA42">
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>28.88</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>53.43</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="AE42">
-        <v>4.81</v>
+        <v>3.79</v>
       </c>
       <c r="AF42">
-        <v>19.03</v>
-      </c>
-      <c r="AG42">
-        <v>8.68</v>
-      </c>
-      <c r="AH42">
-        <v>24.39</v>
-      </c>
-      <c r="AI42">
-        <v>16.79</v>
-      </c>
-      <c r="AJ42">
-        <v>1.29</v>
-      </c>
-      <c r="AK42">
-        <v>5.12</v>
-      </c>
-      <c r="AL42">
-        <v>3.93</v>
-      </c>
-      <c r="AM42">
-        <v>6.89</v>
-      </c>
-      <c r="AN42">
-        <v>9.08</v>
-      </c>
-      <c r="AO42">
-        <v>1.06</v>
-      </c>
-      <c r="AP42">
-        <v>0.7</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>28.88</v>
-      </c>
-      <c r="AS42">
-        <v>53.43</v>
-      </c>
-      <c r="AT42">
-        <v>7.76</v>
-      </c>
-      <c r="AU42">
-        <v>3.79</v>
-      </c>
-      <c r="AV42">
         <v>4.38</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>248990</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>202109</v>
@@ -6694,10 +4630,10 @@
         <v>1279202458</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I43">
         <v>4165036000</v>
@@ -6706,7 +4642,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L43">
         <v>4937722</v>
@@ -6718,7 +4654,7 @@
         <v>139471</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -6727,108 +4663,60 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="S43">
+        <v>22.12</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>22.53</v>
+      </c>
+      <c r="AC43">
+        <v>76.62</v>
+      </c>
+      <c r="AD43">
         <v>0.85</v>
       </c>
-      <c r="T43">
-        <v>1.64</v>
-      </c>
-      <c r="U43">
-        <v>95.87</v>
-      </c>
-      <c r="V43">
-        <v>1.64</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>93.03</v>
-      </c>
-      <c r="Y43">
-        <v>1.64</v>
-      </c>
-      <c r="Z43">
-        <v>5.33</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>3.28</v>
-      </c>
-      <c r="AI43">
-        <v>22.12</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>22.53</v>
-      </c>
-      <c r="AS43">
-        <v>76.62</v>
-      </c>
-      <c r="AT43">
-        <v>0.85</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>261320</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>202110</v>
@@ -6840,10 +4728,10 @@
         <v>1279091525</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I44">
         <v>4165036000</v>
@@ -6852,7 +4740,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L44">
         <v>23763906</v>
@@ -6864,117 +4752,69 @@
         <v>26416</v>
       </c>
       <c r="O44">
-        <v>79.62</v>
+        <v>4.92</v>
       </c>
       <c r="P44">
-        <v>20.38</v>
+        <v>6.93</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>16.36</v>
       </c>
       <c r="R44">
-        <v>8.44</v>
+        <v>11.11</v>
       </c>
       <c r="S44">
-        <v>17.6</v>
+        <v>16.86</v>
       </c>
       <c r="T44">
-        <v>15.89</v>
+        <v>0.55</v>
       </c>
       <c r="U44">
-        <v>17.75</v>
+        <v>9.23</v>
       </c>
       <c r="V44">
-        <v>23.38</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="W44">
-        <v>16.94</v>
+        <v>14.03</v>
       </c>
       <c r="X44">
-        <v>29.11</v>
+        <v>11.49</v>
       </c>
       <c r="Y44">
-        <v>40.61</v>
+        <v>3.19</v>
       </c>
       <c r="Z44">
-        <v>30.19</v>
+        <v>0.92</v>
       </c>
       <c r="AA44">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>22.12</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>37.41</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>20.69</v>
       </c>
       <c r="AE44">
-        <v>4.92</v>
+        <v>5.22</v>
       </c>
       <c r="AF44">
-        <v>6.93</v>
-      </c>
-      <c r="AG44">
-        <v>16.36</v>
-      </c>
-      <c r="AH44">
-        <v>11.11</v>
-      </c>
-      <c r="AI44">
-        <v>16.86</v>
-      </c>
-      <c r="AJ44">
-        <v>0.55</v>
-      </c>
-      <c r="AK44">
-        <v>9.23</v>
-      </c>
-      <c r="AL44">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AM44">
-        <v>14.03</v>
-      </c>
-      <c r="AN44">
-        <v>11.49</v>
-      </c>
-      <c r="AO44">
-        <v>3.19</v>
-      </c>
-      <c r="AP44">
-        <v>0.92</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>22.12</v>
-      </c>
-      <c r="AS44">
-        <v>37.41</v>
-      </c>
-      <c r="AT44">
-        <v>20.69</v>
-      </c>
-      <c r="AU44">
-        <v>5.22</v>
-      </c>
-      <c r="AV44">
         <v>10.45</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:32">
       <c r="A45" s="1">
         <v>261321</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>202110</v>
@@ -6986,10 +4826,10 @@
         <v>1279202458</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I45">
         <v>4165036000</v>
@@ -6998,7 +4838,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L45">
         <v>14291779</v>
@@ -7010,7 +4850,7 @@
         <v>279570</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -7019,108 +4859,60 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>0.34</v>
+        <v>11.14</v>
       </c>
       <c r="T45">
-        <v>37.64</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>17.88</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>43.56</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>38.12</v>
       </c>
       <c r="X45">
-        <v>32.81</v>
+        <v>50.73</v>
       </c>
       <c r="Y45">
-        <v>65.98</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>43.19</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>54.33</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>11.14</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>38.12</v>
-      </c>
-      <c r="AN45">
-        <v>50.73</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>43.19</v>
-      </c>
-      <c r="AS45">
-        <v>54.33</v>
-      </c>
-      <c r="AT45">
-        <v>2.18</v>
-      </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:32">
       <c r="A46" s="1">
         <v>273676</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>202111</v>
@@ -7132,10 +4924,10 @@
         <v>1279091525</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>4165036000</v>
@@ -7144,7 +4936,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L46">
         <v>49489587</v>
@@ -7156,117 +4948,69 @@
         <v>40951</v>
       </c>
       <c r="O46">
-        <v>92.88</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>7.12</v>
+        <v>12.43</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>15.67</v>
       </c>
       <c r="R46">
-        <v>14.83</v>
+        <v>20.51</v>
       </c>
       <c r="S46">
-        <v>47.42</v>
+        <v>11.54</v>
       </c>
       <c r="T46">
-        <v>7.05</v>
+        <v>0.89</v>
       </c>
       <c r="U46">
-        <v>9.65</v>
+        <v>10.25</v>
       </c>
       <c r="V46">
-        <v>13.92</v>
+        <v>11.64</v>
       </c>
       <c r="W46">
-        <v>7.12</v>
+        <v>5.28</v>
       </c>
       <c r="X46">
-        <v>10.87</v>
+        <v>7.99</v>
       </c>
       <c r="Y46">
-        <v>31.72</v>
+        <v>0.23</v>
       </c>
       <c r="Z46">
-        <v>57.11</v>
+        <v>0.83</v>
       </c>
       <c r="AA46">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>49.33</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>17.07</v>
       </c>
       <c r="AE46">
-        <v>3.8</v>
+        <v>6.12</v>
       </c>
       <c r="AF46">
-        <v>12.43</v>
-      </c>
-      <c r="AG46">
-        <v>15.67</v>
-      </c>
-      <c r="AH46">
-        <v>20.51</v>
-      </c>
-      <c r="AI46">
-        <v>11.54</v>
-      </c>
-      <c r="AJ46">
-        <v>0.89</v>
-      </c>
-      <c r="AK46">
-        <v>10.25</v>
-      </c>
-      <c r="AL46">
-        <v>11.64</v>
-      </c>
-      <c r="AM46">
-        <v>5.28</v>
-      </c>
-      <c r="AN46">
-        <v>7.99</v>
-      </c>
-      <c r="AO46">
-        <v>0.23</v>
-      </c>
-      <c r="AP46">
-        <v>0.83</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>19.8</v>
-      </c>
-      <c r="AS46">
-        <v>49.33</v>
-      </c>
-      <c r="AT46">
-        <v>17.07</v>
-      </c>
-      <c r="AU46">
-        <v>6.12</v>
-      </c>
-      <c r="AV46">
         <v>6.62</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:32">
       <c r="A47" s="1">
         <v>273677</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>202111</v>
@@ -7278,10 +5022,10 @@
         <v>1279202458</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I47">
         <v>4165036000</v>
@@ -7290,7 +5034,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K47" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L47">
         <v>31140719</v>
@@ -7302,7 +5046,7 @@
         <v>334772</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -7311,108 +5055,60 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>3.99</v>
+        <v>17.57</v>
       </c>
       <c r="S47">
-        <v>74.68000000000001</v>
+        <v>38.17</v>
       </c>
       <c r="T47">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>19.84</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>1.19</v>
+        <v>38.5</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="X47">
-        <v>39.42</v>
+        <v>5.18</v>
       </c>
       <c r="Y47">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>36.43</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>16.6</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>16.79</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>38.82</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>17.57</v>
-      </c>
-      <c r="AI47">
-        <v>38.17</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>38.5</v>
-      </c>
-      <c r="AM47">
-        <v>0.58</v>
-      </c>
-      <c r="AN47">
-        <v>5.18</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>16.79</v>
-      </c>
-      <c r="AS47">
-        <v>43.2</v>
-      </c>
-      <c r="AT47">
-        <v>38.82</v>
-      </c>
-      <c r="AU47">
-        <v>0.85</v>
-      </c>
-      <c r="AV47">
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:32">
       <c r="A48" s="1">
         <v>286071</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>202112</v>
@@ -7424,10 +5120,10 @@
         <v>1279091525</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I48">
         <v>4165036000</v>
@@ -7436,7 +5132,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L48">
         <v>26951740</v>
@@ -7448,117 +5144,69 @@
         <v>29179</v>
       </c>
       <c r="O48">
-        <v>90.31999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="P48">
-        <v>9.68</v>
+        <v>6.58</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="R48">
-        <v>10.18</v>
+        <v>7.1</v>
       </c>
       <c r="S48">
-        <v>17.69</v>
+        <v>21.47</v>
       </c>
       <c r="T48">
-        <v>21.81</v>
+        <v>2.23</v>
       </c>
       <c r="U48">
-        <v>20.59</v>
+        <v>10.9</v>
       </c>
       <c r="V48">
-        <v>20.04</v>
+        <v>9.5</v>
       </c>
       <c r="W48">
-        <v>9.68</v>
+        <v>10.66</v>
       </c>
       <c r="X48">
-        <v>26.38</v>
+        <v>20.35</v>
       </c>
       <c r="Y48">
-        <v>35.74</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>37.89</v>
+        <v>0.59</v>
       </c>
       <c r="AA48">
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>18.55</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="AE48">
-        <v>3.12</v>
+        <v>9.31</v>
       </c>
       <c r="AF48">
-        <v>6.58</v>
-      </c>
-      <c r="AG48">
-        <v>8.1</v>
-      </c>
-      <c r="AH48">
-        <v>7.1</v>
-      </c>
-      <c r="AI48">
-        <v>21.47</v>
-      </c>
-      <c r="AJ48">
-        <v>2.23</v>
-      </c>
-      <c r="AK48">
-        <v>10.9</v>
-      </c>
-      <c r="AL48">
-        <v>9.5</v>
-      </c>
-      <c r="AM48">
-        <v>10.66</v>
-      </c>
-      <c r="AN48">
-        <v>20.35</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0.59</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>18.55</v>
-      </c>
-      <c r="AS48">
-        <v>48.6</v>
-      </c>
-      <c r="AT48">
-        <v>12.86</v>
-      </c>
-      <c r="AU48">
-        <v>9.31</v>
-      </c>
-      <c r="AV48">
         <v>10.1</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
         <v>286072</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>202112</v>
@@ -7570,10 +5218,10 @@
         <v>1279202458</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I49">
         <v>4165036000</v>
@@ -7582,7 +5230,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K49" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L49">
         <v>9207839</v>
@@ -7594,7 +5242,7 @@
         <v>253871</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -7603,43 +5251,43 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>11.25</v>
+        <v>67.53</v>
       </c>
       <c r="S49">
-        <v>0.25</v>
+        <v>30.7</v>
       </c>
       <c r="T49">
+        <v>1.77</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>2.92</v>
+      </c>
+      <c r="AC49">
         <v>29.55</v>
       </c>
-      <c r="U49">
-        <v>0.9</v>
-      </c>
-      <c r="V49">
-        <v>58.04</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>11.25</v>
-      </c>
-      <c r="Y49">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="Z49">
-        <v>1.15</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
       <c r="AD49">
-        <v>0</v>
+        <v>67.53</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -7647,64 +5295,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>67.53</v>
-      </c>
-      <c r="AI49">
-        <v>30.7</v>
-      </c>
-      <c r="AJ49">
-        <v>1.77</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>2.92</v>
-      </c>
-      <c r="AS49">
-        <v>29.55</v>
-      </c>
-      <c r="AT49">
-        <v>67.53</v>
-      </c>
-      <c r="AU49">
-        <v>0</v>
-      </c>
-      <c r="AV49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:32">
       <c r="A50" s="1">
         <v>298435</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>202201</v>
@@ -7716,10 +5316,10 @@
         <v>1279091525</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I50">
         <v>4165036000</v>
@@ -7728,7 +5328,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L50">
         <v>21433847</v>
@@ -7740,117 +5340,69 @@
         <v>23875</v>
       </c>
       <c r="O50">
-        <v>84.29000000000001</v>
+        <v>7.28</v>
       </c>
       <c r="P50">
-        <v>15.71</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>15.32</v>
       </c>
       <c r="R50">
-        <v>16.91</v>
+        <v>22.11</v>
       </c>
       <c r="S50">
-        <v>10.88</v>
+        <v>13.29</v>
       </c>
       <c r="T50">
-        <v>19.17</v>
+        <v>0.78</v>
       </c>
       <c r="U50">
-        <v>10.3</v>
+        <v>6.21</v>
       </c>
       <c r="V50">
-        <v>27.02</v>
+        <v>6.5</v>
       </c>
       <c r="W50">
-        <v>15.71</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="X50">
-        <v>29.14</v>
+        <v>12.33</v>
       </c>
       <c r="Y50">
-        <v>39.44</v>
+        <v>1.29</v>
       </c>
       <c r="Z50">
-        <v>27.8</v>
+        <v>2.8</v>
       </c>
       <c r="AA50">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>18.29</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>54.11</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>14.69</v>
       </c>
       <c r="AE50">
-        <v>7.28</v>
+        <v>8.26</v>
       </c>
       <c r="AF50">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="AG50">
-        <v>15.32</v>
-      </c>
-      <c r="AH50">
-        <v>22.11</v>
-      </c>
-      <c r="AI50">
-        <v>13.29</v>
-      </c>
-      <c r="AJ50">
-        <v>0.78</v>
-      </c>
-      <c r="AK50">
-        <v>6.21</v>
-      </c>
-      <c r="AL50">
-        <v>6.5</v>
-      </c>
-      <c r="AM50">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AN50">
-        <v>12.33</v>
-      </c>
-      <c r="AO50">
-        <v>1.29</v>
-      </c>
-      <c r="AP50">
-        <v>2.8</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>18.29</v>
-      </c>
-      <c r="AS50">
-        <v>54.11</v>
-      </c>
-      <c r="AT50">
-        <v>14.69</v>
-      </c>
-      <c r="AU50">
-        <v>8.26</v>
-      </c>
-      <c r="AV50">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:32">
       <c r="A51" s="1">
         <v>298436</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>202201</v>
@@ -7862,10 +5414,10 @@
         <v>1279202458</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I51">
         <v>4165036000</v>
@@ -7874,7 +5426,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L51">
         <v>18498896</v>
@@ -7886,117 +5438,69 @@
         <v>318136</v>
       </c>
       <c r="O51">
-        <v>100</v>
+        <v>12.04</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="R51">
-        <v>23.49</v>
+        <v>8.6</v>
       </c>
       <c r="S51">
-        <v>0.47</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="T51">
-        <v>74.91</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>9.19</v>
+        <v>4.35</v>
       </c>
       <c r="Y51">
-        <v>90.44</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>21.26</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="AE51">
-        <v>12.04</v>
+        <v>2.92</v>
       </c>
       <c r="AF51">
         <v>0</v>
       </c>
-      <c r="AG51">
-        <v>0.47</v>
-      </c>
-      <c r="AH51">
-        <v>8.6</v>
-      </c>
-      <c r="AI51">
-        <v>74.54000000000001</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>4.35</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>21.26</v>
-      </c>
-      <c r="AS51">
-        <v>1.28</v>
-      </c>
-      <c r="AT51">
-        <v>74.54000000000001</v>
-      </c>
-      <c r="AU51">
-        <v>2.92</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:32">
       <c r="A52" s="1">
         <v>310851</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D52">
         <v>202202</v>
@@ -8008,10 +5512,10 @@
         <v>1279091525</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I52">
         <v>4165036000</v>
@@ -8020,7 +5524,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L52">
         <v>15469096</v>
@@ -8032,117 +5536,69 @@
         <v>22471</v>
       </c>
       <c r="O52">
-        <v>85.03</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>14.97</v>
+        <v>6.86</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="R52">
-        <v>24.1</v>
+        <v>14.22</v>
       </c>
       <c r="S52">
-        <v>7.91</v>
+        <v>9.91</v>
       </c>
       <c r="T52">
-        <v>24.74</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>15.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="V52">
-        <v>12.43</v>
+        <v>4.51</v>
       </c>
       <c r="W52">
-        <v>14.97</v>
+        <v>20.47</v>
       </c>
       <c r="X52">
-        <v>27.94</v>
+        <v>20.78</v>
       </c>
       <c r="Y52">
-        <v>37.07</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>34.99</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>46.89</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>19.35</v>
       </c>
       <c r="AE52">
-        <v>3.6</v>
+        <v>8.85</v>
       </c>
       <c r="AF52">
-        <v>6.86</v>
-      </c>
-      <c r="AG52">
-        <v>11.52</v>
-      </c>
-      <c r="AH52">
-        <v>14.22</v>
-      </c>
-      <c r="AI52">
-        <v>9.91</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="AL52">
-        <v>4.51</v>
-      </c>
-      <c r="AM52">
-        <v>20.47</v>
-      </c>
-      <c r="AN52">
-        <v>20.78</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>16.25</v>
-      </c>
-      <c r="AS52">
-        <v>46.89</v>
-      </c>
-      <c r="AT52">
-        <v>19.35</v>
-      </c>
-      <c r="AU52">
-        <v>8.85</v>
-      </c>
-      <c r="AV52">
         <v>8.65</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:32">
       <c r="A53" s="1">
         <v>310852</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>202202</v>
@@ -8154,10 +5610,10 @@
         <v>1279202458</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I53">
         <v>4165036000</v>
@@ -8166,7 +5622,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K53" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L53">
         <v>32452136</v>
@@ -8178,7 +5634,7 @@
         <v>369747</v>
       </c>
       <c r="O53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -8187,108 +5643,60 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0.66</v>
+        <v>33.64</v>
       </c>
       <c r="S53">
-        <v>7.12</v>
+        <v>25.01</v>
       </c>
       <c r="T53">
-        <v>11.99</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>52.89</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>27.34</v>
+        <v>32.77</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>20.45</v>
+        <v>8.58</v>
       </c>
       <c r="Y53">
-        <v>78.05</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>58.13</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>33.64</v>
-      </c>
-      <c r="AI53">
-        <v>25.01</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>32.77</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>8.58</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>7.45</v>
-      </c>
-      <c r="AS53">
-        <v>58.13</v>
-      </c>
-      <c r="AT53">
-        <v>33.2</v>
-      </c>
-      <c r="AU53">
-        <v>0.91</v>
-      </c>
-      <c r="AV53">
         <v>0.31</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:32">
       <c r="A54" s="1">
         <v>323285</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>202203</v>
@@ -8300,10 +5708,10 @@
         <v>1279091525</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I54">
         <v>4165036000</v>
@@ -8312,7 +5720,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K54" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L54">
         <v>21589835</v>
@@ -8324,117 +5732,69 @@
         <v>21437</v>
       </c>
       <c r="O54">
-        <v>81.55</v>
+        <v>6.14</v>
       </c>
       <c r="P54">
-        <v>18.45</v>
+        <v>12.34</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="R54">
-        <v>12.68</v>
+        <v>24.99</v>
       </c>
       <c r="S54">
-        <v>13.43</v>
+        <v>9.17</v>
       </c>
       <c r="T54">
-        <v>31.86</v>
+        <v>2.64</v>
       </c>
       <c r="U54">
-        <v>14.73</v>
+        <v>5.1</v>
       </c>
       <c r="V54">
-        <v>11.76</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="W54">
-        <v>15.56</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="X54">
-        <v>27.48</v>
+        <v>12.88</v>
       </c>
       <c r="Y54">
-        <v>35.77</v>
+        <v>2.3</v>
       </c>
       <c r="Z54">
-        <v>36.62</v>
+        <v>3.66</v>
       </c>
       <c r="AA54">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>60.38</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="AE54">
-        <v>6.14</v>
+        <v>6.85</v>
       </c>
       <c r="AF54">
-        <v>12.34</v>
-      </c>
-      <c r="AG54">
-        <v>8.82</v>
-      </c>
-      <c r="AH54">
-        <v>24.99</v>
-      </c>
-      <c r="AI54">
-        <v>9.17</v>
-      </c>
-      <c r="AJ54">
-        <v>2.64</v>
-      </c>
-      <c r="AK54">
-        <v>5.1</v>
-      </c>
-      <c r="AL54">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="AM54">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AN54">
-        <v>12.88</v>
-      </c>
-      <c r="AO54">
-        <v>2.3</v>
-      </c>
-      <c r="AP54">
-        <v>3.66</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>16.04</v>
-      </c>
-      <c r="AS54">
-        <v>60.38</v>
-      </c>
-      <c r="AT54">
-        <v>10.45</v>
-      </c>
-      <c r="AU54">
-        <v>6.85</v>
-      </c>
-      <c r="AV54">
         <v>0.32</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:32">
       <c r="A55" s="1">
         <v>323286</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>202203</v>
@@ -8446,10 +5806,10 @@
         <v>1279202458</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I55">
         <v>4165036000</v>
@@ -8458,7 +5818,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K55" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L55">
         <v>1307376</v>
@@ -8470,7 +5830,7 @@
         <v>25500</v>
       </c>
       <c r="O55">
-        <v>100</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -8479,31 +5839,31 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>17.8</v>
+        <v>16.67</v>
       </c>
       <c r="S55">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="T55">
-        <v>18.67</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>11.33</v>
+        <v>9.84</v>
       </c>
       <c r="V55">
-        <v>48.86</v>
+        <v>39.68</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="X55">
-        <v>6.67</v>
+        <v>8.33</v>
       </c>
       <c r="Y55">
-        <v>40.39</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>52.94</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -8512,75 +5872,27 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>47.26</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>49.37</v>
       </c>
       <c r="AE55">
-        <v>9.050000000000001</v>
+        <v>3.37</v>
       </c>
       <c r="AF55">
         <v>0</v>
       </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>16.67</v>
-      </c>
-      <c r="AI55">
-        <v>3.37</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>9.84</v>
-      </c>
-      <c r="AL55">
-        <v>39.68</v>
-      </c>
-      <c r="AM55">
-        <v>13.06</v>
-      </c>
-      <c r="AN55">
-        <v>8.33</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>47.26</v>
-      </c>
-      <c r="AT55">
-        <v>49.37</v>
-      </c>
-      <c r="AU55">
-        <v>3.37</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:32">
       <c r="A56" s="1">
         <v>335798</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>202204</v>
@@ -8592,10 +5904,10 @@
         <v>1279091525</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I56">
         <v>4165036000</v>
@@ -8604,7 +5916,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K56" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L56">
         <v>18336428</v>
@@ -8616,117 +5928,69 @@
         <v>16815</v>
       </c>
       <c r="O56">
-        <v>74.65000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="P56">
-        <v>25.35</v>
+        <v>7.43</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>17.17</v>
       </c>
       <c r="R56">
-        <v>13.52</v>
+        <v>14.45</v>
       </c>
       <c r="S56">
-        <v>13.73</v>
+        <v>20.57</v>
       </c>
       <c r="T56">
-        <v>17.39</v>
+        <v>4.56</v>
       </c>
       <c r="U56">
-        <v>8.289999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="V56">
-        <v>21.72</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="W56">
-        <v>25.35</v>
+        <v>17.03</v>
       </c>
       <c r="X56">
-        <v>26.22</v>
+        <v>4.39</v>
       </c>
       <c r="Y56">
-        <v>51.64</v>
+        <v>0.78</v>
       </c>
       <c r="Z56">
-        <v>21.53</v>
+        <v>0.14</v>
       </c>
       <c r="AA56">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>17.92</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>44.27</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>21.78</v>
       </c>
       <c r="AE56">
-        <v>2.63</v>
+        <v>12.81</v>
       </c>
       <c r="AF56">
-        <v>7.43</v>
-      </c>
-      <c r="AG56">
-        <v>17.17</v>
-      </c>
-      <c r="AH56">
-        <v>14.45</v>
-      </c>
-      <c r="AI56">
-        <v>20.57</v>
-      </c>
-      <c r="AJ56">
-        <v>4.56</v>
-      </c>
-      <c r="AK56">
-        <v>2.9</v>
-      </c>
-      <c r="AL56">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="AM56">
-        <v>17.03</v>
-      </c>
-      <c r="AN56">
-        <v>4.39</v>
-      </c>
-      <c r="AO56">
-        <v>0.78</v>
-      </c>
-      <c r="AP56">
-        <v>0.14</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>17.92</v>
-      </c>
-      <c r="AS56">
-        <v>44.27</v>
-      </c>
-      <c r="AT56">
-        <v>21.78</v>
-      </c>
-      <c r="AU56">
-        <v>12.81</v>
-      </c>
-      <c r="AV56">
         <v>2.29</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:32">
       <c r="A57" s="1">
         <v>335799</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D57">
         <v>202204</v>
@@ -8738,10 +6002,10 @@
         <v>1279202458</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I57">
         <v>4165036000</v>
@@ -8750,7 +6014,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K57" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L57">
         <v>428638</v>
@@ -8762,10 +6026,10 @@
         <v>13733</v>
       </c>
       <c r="O57">
-        <v>100</v>
+        <v>23.42</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>10.32</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -8774,28 +6038,28 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>23.42</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>22.45</v>
+        <v>0</v>
       </c>
       <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>12.14</v>
+      </c>
+      <c r="W57">
         <v>3.64</v>
       </c>
-      <c r="V57">
+      <c r="X57">
         <v>50.49</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>48.18</v>
-      </c>
       <c r="Y57">
-        <v>48.18</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -8804,75 +6068,27 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="AD57">
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>23.42</v>
+        <v>29.37</v>
       </c>
       <c r="AF57">
-        <v>10.32</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
         <v>12.14</v>
       </c>
-      <c r="AM57">
-        <v>3.64</v>
-      </c>
-      <c r="AN57">
-        <v>50.49</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>0</v>
-      </c>
-      <c r="AS57">
-        <v>58.5</v>
-      </c>
-      <c r="AT57">
-        <v>0</v>
-      </c>
-      <c r="AU57">
-        <v>29.37</v>
-      </c>
-      <c r="AV57">
-        <v>12.14</v>
-      </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:32">
       <c r="A58" s="1">
         <v>348367</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>202205</v>
@@ -8884,10 +6100,10 @@
         <v>1279091525</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I58">
         <v>4165036000</v>
@@ -8896,7 +6112,7 @@
         <v>39.3939393939394</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L58">
         <v>26249389</v>
@@ -8908,117 +6124,69 @@
         <v>25729</v>
       </c>
       <c r="O58">
-        <v>80.15000000000001</v>
+        <v>4.35</v>
       </c>
       <c r="P58">
-        <v>19.85</v>
+        <v>11.28</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="R58">
-        <v>19.82</v>
+        <v>21.18</v>
       </c>
       <c r="S58">
-        <v>18.01</v>
+        <v>21.24</v>
       </c>
       <c r="T58">
-        <v>11.61</v>
+        <v>0.8</v>
       </c>
       <c r="U58">
-        <v>10.97</v>
+        <v>7.37</v>
       </c>
       <c r="V58">
-        <v>19.97</v>
+        <v>2.68</v>
       </c>
       <c r="W58">
-        <v>19.62</v>
+        <v>10.73</v>
       </c>
       <c r="X58">
-        <v>23.78</v>
+        <v>4.31</v>
       </c>
       <c r="Y58">
-        <v>38.37</v>
+        <v>0.11</v>
       </c>
       <c r="Z58">
-        <v>33.3</v>
+        <v>0.63</v>
       </c>
       <c r="AA58">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>61.55</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>10.38</v>
       </c>
       <c r="AE58">
-        <v>4.35</v>
+        <v>5.32</v>
       </c>
       <c r="AF58">
-        <v>11.28</v>
-      </c>
-      <c r="AG58">
-        <v>16.06</v>
-      </c>
-      <c r="AH58">
-        <v>21.18</v>
-      </c>
-      <c r="AI58">
-        <v>21.24</v>
-      </c>
-      <c r="AJ58">
-        <v>0.8</v>
-      </c>
-      <c r="AK58">
-        <v>7.37</v>
-      </c>
-      <c r="AL58">
-        <v>2.68</v>
-      </c>
-      <c r="AM58">
-        <v>10.73</v>
-      </c>
-      <c r="AN58">
-        <v>4.31</v>
-      </c>
-      <c r="AO58">
-        <v>0.11</v>
-      </c>
-      <c r="AP58">
-        <v>0.63</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>21.48</v>
-      </c>
-      <c r="AS58">
-        <v>61.55</v>
-      </c>
-      <c r="AT58">
-        <v>10.38</v>
-      </c>
-      <c r="AU58">
-        <v>5.32</v>
-      </c>
-      <c r="AV58">
         <v>0.53</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:32">
       <c r="A59" s="1">
         <v>348368</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>202205</v>
@@ -9030,10 +6198,10 @@
         <v>1279202458</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I59">
         <v>4165036000</v>
@@ -9042,7 +6210,7 @@
         <v>30.21212121212121</v>
       </c>
       <c r="K59" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L59">
         <v>11628002</v>
@@ -9054,19 +6222,19 @@
         <v>377517</v>
       </c>
       <c r="O59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>62.32</v>
+        <v>35.32</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>59.6</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -9075,84 +6243,36 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>37.68</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="X59">
-        <v>35.57</v>
+        <v>2.46</v>
       </c>
       <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>97.54000000000001</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
         <v>2.46</v>
       </c>
-      <c r="Z59">
-        <v>61.96</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
       <c r="AF59">
-        <v>2.36</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>35.32</v>
-      </c>
-      <c r="AI59">
-        <v>59.6</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0.26</v>
-      </c>
-      <c r="AN59">
-        <v>2.46</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>0</v>
-      </c>
-      <c r="AR59">
-        <v>0</v>
-      </c>
-      <c r="AS59">
-        <v>97.54000000000001</v>
-      </c>
-      <c r="AT59">
-        <v>0</v>
-      </c>
-      <c r="AU59">
-        <v>2.46</v>
-      </c>
-      <c r="AV59">
         <v>0</v>
       </c>
     </row>
